--- a/就活/就活情報.xlsx
+++ b/就活/就活情報.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\就活\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FBC75-6ECF-45CB-8E28-678173B3BC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3DD5A-9ECC-4386-B0BD-B35EC4571F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{1FDE35BD-F711-483A-94A6-8E3E0233F6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FDE35BD-F711-483A-94A6-8E3E0233F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="就活メモ" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="カレンダー" sheetId="3" r:id="rId2"/>
+    <sheet name="就活アカウント" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>企業名</t>
     <rPh sb="0" eb="3">
@@ -213,12 +214,165 @@
     <t>マイナビ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025年</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームフリークwebセミナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カプコンインターン応募締め切り</t>
+    <rPh sb="9" eb="12">
+      <t>オウボシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G2スタジオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +412,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +434,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -505,16 +679,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,13 +998,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="通貨" xfId="2" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -908,7 +1447,7 @@
   <dimension ref="B1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1122,7 +1661,9 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
+      <c r="B13" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1311,6 +1852,2749 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502C77F8-B3EC-4F8F-8D9E-490156A58C39}">
+  <dimension ref="A1:R91"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="25"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L1" s="31"/>
+    </row>
+    <row r="2" spans="1:18" s="25" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B4" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37">
+        <v>1</v>
+      </c>
+      <c r="G4" s="37">
+        <v>2</v>
+      </c>
+      <c r="H4" s="37">
+        <v>3</v>
+      </c>
+      <c r="I4" s="38">
+        <v>4</v>
+      </c>
+      <c r="J4" s="25"/>
+      <c r="K4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37">
+        <v>1</v>
+      </c>
+      <c r="P4" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>3</v>
+      </c>
+      <c r="R4" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B5" s="52"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="42"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B6" s="52"/>
+      <c r="C6" s="40">
+        <v>5</v>
+      </c>
+      <c r="D6" s="41">
+        <v>6</v>
+      </c>
+      <c r="E6" s="41">
+        <v>7</v>
+      </c>
+      <c r="F6" s="41">
+        <v>8</v>
+      </c>
+      <c r="G6" s="41">
+        <v>9</v>
+      </c>
+      <c r="H6" s="41">
+        <v>10</v>
+      </c>
+      <c r="I6" s="42">
+        <v>11</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="43">
+        <v>5</v>
+      </c>
+      <c r="M6" s="41">
+        <v>6</v>
+      </c>
+      <c r="N6" s="41">
+        <v>7</v>
+      </c>
+      <c r="O6" s="41">
+        <v>8</v>
+      </c>
+      <c r="P6" s="41">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>10</v>
+      </c>
+      <c r="R6" s="42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B7" s="52"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B8" s="52"/>
+      <c r="C8" s="40">
+        <v>12</v>
+      </c>
+      <c r="D8" s="41">
+        <v>13</v>
+      </c>
+      <c r="E8" s="41">
+        <v>14</v>
+      </c>
+      <c r="F8" s="41">
+        <v>15</v>
+      </c>
+      <c r="G8" s="41">
+        <v>16</v>
+      </c>
+      <c r="H8" s="41">
+        <v>17</v>
+      </c>
+      <c r="I8" s="42">
+        <v>18</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="43">
+        <v>12</v>
+      </c>
+      <c r="M8" s="41">
+        <v>13</v>
+      </c>
+      <c r="N8" s="41">
+        <v>14</v>
+      </c>
+      <c r="O8" s="41">
+        <v>15</v>
+      </c>
+      <c r="P8" s="41">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="41">
+        <v>17</v>
+      </c>
+      <c r="R8" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B9" s="52"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B10" s="52"/>
+      <c r="C10" s="40">
+        <v>19</v>
+      </c>
+      <c r="D10" s="41">
+        <v>20</v>
+      </c>
+      <c r="E10" s="41">
+        <v>21</v>
+      </c>
+      <c r="F10" s="41">
+        <v>22</v>
+      </c>
+      <c r="G10" s="41">
+        <v>23</v>
+      </c>
+      <c r="H10" s="41">
+        <v>24</v>
+      </c>
+      <c r="I10" s="42">
+        <v>25</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="43">
+        <v>19</v>
+      </c>
+      <c r="M10" s="41">
+        <v>20</v>
+      </c>
+      <c r="N10" s="41">
+        <v>21</v>
+      </c>
+      <c r="O10" s="41">
+        <v>22</v>
+      </c>
+      <c r="P10" s="41">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="41">
+        <v>24</v>
+      </c>
+      <c r="R10" s="42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B11" s="52"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="42"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B12" s="52"/>
+      <c r="C12" s="40">
+        <v>26</v>
+      </c>
+      <c r="D12" s="41">
+        <v>27</v>
+      </c>
+      <c r="E12" s="41">
+        <v>28</v>
+      </c>
+      <c r="F12" s="41">
+        <v>29</v>
+      </c>
+      <c r="G12" s="41">
+        <v>30</v>
+      </c>
+      <c r="H12" s="41">
+        <v>31</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="43">
+        <v>26</v>
+      </c>
+      <c r="M12" s="41">
+        <v>27</v>
+      </c>
+      <c r="N12" s="41">
+        <v>28</v>
+      </c>
+      <c r="O12" s="41">
+        <v>29</v>
+      </c>
+      <c r="P12" s="41">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="41">
+        <v>31</v>
+      </c>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="53"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
+    </row>
+    <row r="14" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38">
+        <v>1</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="36"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="52"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="52"/>
+      <c r="C17" s="40">
+        <v>2</v>
+      </c>
+      <c r="D17" s="41">
+        <v>3</v>
+      </c>
+      <c r="E17" s="41">
+        <v>4</v>
+      </c>
+      <c r="F17" s="41">
+        <v>5</v>
+      </c>
+      <c r="G17" s="41">
+        <v>6</v>
+      </c>
+      <c r="H17" s="41">
+        <v>7</v>
+      </c>
+      <c r="I17" s="42">
+        <v>8</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="40">
+        <v>2</v>
+      </c>
+      <c r="M17" s="41">
+        <v>3</v>
+      </c>
+      <c r="N17" s="41">
+        <v>4</v>
+      </c>
+      <c r="O17" s="41">
+        <v>5</v>
+      </c>
+      <c r="P17" s="41">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>7</v>
+      </c>
+      <c r="R17" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="52"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="52"/>
+      <c r="C19" s="40">
+        <v>9</v>
+      </c>
+      <c r="D19" s="41">
+        <v>10</v>
+      </c>
+      <c r="E19" s="41">
+        <v>11</v>
+      </c>
+      <c r="F19" s="50">
+        <v>12</v>
+      </c>
+      <c r="G19" s="41">
+        <v>13</v>
+      </c>
+      <c r="H19" s="41">
+        <v>14</v>
+      </c>
+      <c r="I19" s="42">
+        <v>15</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="40">
+        <v>9</v>
+      </c>
+      <c r="M19" s="41">
+        <v>10</v>
+      </c>
+      <c r="N19" s="41">
+        <v>11</v>
+      </c>
+      <c r="O19" s="41">
+        <v>12</v>
+      </c>
+      <c r="P19" s="41">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="41">
+        <v>14</v>
+      </c>
+      <c r="R19" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="52"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="42"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="52"/>
+      <c r="C21" s="40">
+        <v>16</v>
+      </c>
+      <c r="D21" s="41">
+        <v>17</v>
+      </c>
+      <c r="E21" s="41">
+        <v>18</v>
+      </c>
+      <c r="F21" s="50">
+        <v>19</v>
+      </c>
+      <c r="G21" s="41">
+        <v>20</v>
+      </c>
+      <c r="H21" s="41">
+        <v>21</v>
+      </c>
+      <c r="I21" s="42">
+        <v>22</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="40">
+        <v>16</v>
+      </c>
+      <c r="M21" s="41">
+        <v>17</v>
+      </c>
+      <c r="N21" s="41">
+        <v>18</v>
+      </c>
+      <c r="O21" s="41">
+        <v>19</v>
+      </c>
+      <c r="P21" s="41">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="41">
+        <v>21</v>
+      </c>
+      <c r="R21" s="42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="52"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="52"/>
+      <c r="C23" s="40">
+        <v>23</v>
+      </c>
+      <c r="D23" s="41">
+        <v>24</v>
+      </c>
+      <c r="E23" s="41">
+        <v>25</v>
+      </c>
+      <c r="F23" s="41">
+        <v>26</v>
+      </c>
+      <c r="G23" s="41">
+        <v>27</v>
+      </c>
+      <c r="H23" s="41">
+        <v>28</v>
+      </c>
+      <c r="I23" s="42">
+        <v>29</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="40">
+        <v>23</v>
+      </c>
+      <c r="M23" s="41">
+        <v>24</v>
+      </c>
+      <c r="N23" s="41">
+        <v>25</v>
+      </c>
+      <c r="O23" s="41">
+        <v>26</v>
+      </c>
+      <c r="P23" s="41">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="41">
+        <v>28</v>
+      </c>
+      <c r="R23" s="42"/>
+    </row>
+    <row r="24" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="52"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="46"/>
+    </row>
+    <row r="25" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="52"/>
+      <c r="C25" s="40">
+        <v>30</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="33"/>
+    </row>
+    <row r="26" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="53"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="42"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="37">
+        <v>2</v>
+      </c>
+      <c r="F28" s="37">
+        <v>3</v>
+      </c>
+      <c r="G28" s="37">
+        <v>4</v>
+      </c>
+      <c r="H28" s="37">
+        <v>5</v>
+      </c>
+      <c r="I28" s="38">
+        <v>6</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="40">
+        <v>2</v>
+      </c>
+      <c r="M28" s="41">
+        <v>3</v>
+      </c>
+      <c r="N28" s="41">
+        <v>4</v>
+      </c>
+      <c r="O28" s="41">
+        <v>5</v>
+      </c>
+      <c r="P28" s="41">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="41">
+        <v>7</v>
+      </c>
+      <c r="R28" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="52"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="52"/>
+      <c r="C30" s="40">
+        <v>7</v>
+      </c>
+      <c r="D30" s="41">
+        <v>8</v>
+      </c>
+      <c r="E30" s="41">
+        <v>9</v>
+      </c>
+      <c r="F30" s="41">
+        <v>10</v>
+      </c>
+      <c r="G30" s="41">
+        <v>11</v>
+      </c>
+      <c r="H30" s="41">
+        <v>12</v>
+      </c>
+      <c r="I30" s="42">
+        <v>13</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="40">
+        <v>9</v>
+      </c>
+      <c r="M30" s="41">
+        <v>10</v>
+      </c>
+      <c r="N30" s="41">
+        <v>11</v>
+      </c>
+      <c r="O30" s="41">
+        <v>12</v>
+      </c>
+      <c r="P30" s="41">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="41">
+        <v>14</v>
+      </c>
+      <c r="R30" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="52"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="42"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="52"/>
+      <c r="C32" s="40">
+        <v>14</v>
+      </c>
+      <c r="D32" s="41">
+        <v>15</v>
+      </c>
+      <c r="E32" s="41">
+        <v>16</v>
+      </c>
+      <c r="F32" s="41">
+        <v>17</v>
+      </c>
+      <c r="G32" s="41">
+        <v>18</v>
+      </c>
+      <c r="H32" s="41">
+        <v>19</v>
+      </c>
+      <c r="I32" s="42">
+        <v>20</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="40">
+        <v>16</v>
+      </c>
+      <c r="M32" s="41">
+        <v>17</v>
+      </c>
+      <c r="N32" s="41">
+        <v>18</v>
+      </c>
+      <c r="O32" s="41">
+        <v>19</v>
+      </c>
+      <c r="P32" s="41">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="41">
+        <v>21</v>
+      </c>
+      <c r="R32" s="42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B33" s="52"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="42"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B34" s="52"/>
+      <c r="C34" s="40">
+        <v>21</v>
+      </c>
+      <c r="D34" s="41">
+        <v>22</v>
+      </c>
+      <c r="E34" s="41">
+        <v>23</v>
+      </c>
+      <c r="F34" s="41">
+        <v>24</v>
+      </c>
+      <c r="G34" s="41">
+        <v>25</v>
+      </c>
+      <c r="H34" s="41">
+        <v>26</v>
+      </c>
+      <c r="I34" s="42">
+        <v>27</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="40">
+        <v>23</v>
+      </c>
+      <c r="M34" s="41">
+        <v>24</v>
+      </c>
+      <c r="N34" s="41">
+        <v>25</v>
+      </c>
+      <c r="O34" s="41">
+        <v>26</v>
+      </c>
+      <c r="P34" s="41">
+        <v>27</v>
+      </c>
+      <c r="Q34" s="41">
+        <v>28</v>
+      </c>
+      <c r="R34" s="42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B35" s="52"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B36" s="52"/>
+      <c r="C36" s="40">
+        <v>28</v>
+      </c>
+      <c r="D36" s="41">
+        <v>29</v>
+      </c>
+      <c r="E36" s="41">
+        <v>30</v>
+      </c>
+      <c r="F36" s="41">
+        <v>31</v>
+      </c>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="40">
+        <v>30</v>
+      </c>
+      <c r="M36" s="41">
+        <v>31</v>
+      </c>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="53"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="46"/>
+    </row>
+    <row r="38" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B39" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
+      <c r="H39" s="37">
+        <v>2</v>
+      </c>
+      <c r="I39" s="38">
+        <v>3</v>
+      </c>
+      <c r="J39" s="25"/>
+      <c r="K39" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="36"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37">
+        <v>1</v>
+      </c>
+      <c r="O39" s="37">
+        <v>2</v>
+      </c>
+      <c r="P39" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="37">
+        <v>4</v>
+      </c>
+      <c r="R39" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B40" s="52"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="42"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B41" s="52"/>
+      <c r="C41" s="40">
+        <v>4</v>
+      </c>
+      <c r="D41" s="41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="41">
+        <v>6</v>
+      </c>
+      <c r="F41" s="41">
+        <v>7</v>
+      </c>
+      <c r="G41" s="41">
+        <v>8</v>
+      </c>
+      <c r="H41" s="41">
+        <v>9</v>
+      </c>
+      <c r="I41" s="42">
+        <v>10</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="40">
+        <v>6</v>
+      </c>
+      <c r="M41" s="41">
+        <v>7</v>
+      </c>
+      <c r="N41" s="41">
+        <v>8</v>
+      </c>
+      <c r="O41" s="41">
+        <v>9</v>
+      </c>
+      <c r="P41" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="41">
+        <v>11</v>
+      </c>
+      <c r="R41" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B42" s="52"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="42"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B43" s="52"/>
+      <c r="C43" s="40">
+        <v>11</v>
+      </c>
+      <c r="D43" s="41">
+        <v>12</v>
+      </c>
+      <c r="E43" s="41">
+        <v>13</v>
+      </c>
+      <c r="F43" s="41">
+        <v>14</v>
+      </c>
+      <c r="G43" s="41">
+        <v>15</v>
+      </c>
+      <c r="H43" s="41">
+        <v>16</v>
+      </c>
+      <c r="I43" s="42">
+        <v>17</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="40">
+        <v>13</v>
+      </c>
+      <c r="M43" s="41">
+        <v>14</v>
+      </c>
+      <c r="N43" s="41">
+        <v>15</v>
+      </c>
+      <c r="O43" s="41">
+        <v>16</v>
+      </c>
+      <c r="P43" s="41">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="41">
+        <v>18</v>
+      </c>
+      <c r="R43" s="42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B44" s="52"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="42"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B45" s="52"/>
+      <c r="C45" s="40">
+        <v>18</v>
+      </c>
+      <c r="D45" s="41">
+        <v>19</v>
+      </c>
+      <c r="E45" s="41">
+        <v>20</v>
+      </c>
+      <c r="F45" s="41">
+        <v>21</v>
+      </c>
+      <c r="G45" s="41">
+        <v>22</v>
+      </c>
+      <c r="H45" s="41">
+        <v>23</v>
+      </c>
+      <c r="I45" s="42">
+        <v>24</v>
+      </c>
+      <c r="J45" s="25"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="40">
+        <v>20</v>
+      </c>
+      <c r="M45" s="41">
+        <v>21</v>
+      </c>
+      <c r="N45" s="41">
+        <v>22</v>
+      </c>
+      <c r="O45" s="41">
+        <v>23</v>
+      </c>
+      <c r="P45" s="41">
+        <v>24</v>
+      </c>
+      <c r="Q45" s="41">
+        <v>25</v>
+      </c>
+      <c r="R45" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B46" s="52"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="42"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B47" s="52"/>
+      <c r="C47" s="40">
+        <v>25</v>
+      </c>
+      <c r="D47" s="41">
+        <v>26</v>
+      </c>
+      <c r="E47" s="41">
+        <v>27</v>
+      </c>
+      <c r="F47" s="41">
+        <v>28</v>
+      </c>
+      <c r="G47" s="41">
+        <v>29</v>
+      </c>
+      <c r="H47" s="41">
+        <v>30</v>
+      </c>
+      <c r="I47" s="42">
+        <v>31</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="40">
+        <v>27</v>
+      </c>
+      <c r="M47" s="41">
+        <v>28</v>
+      </c>
+      <c r="N47" s="41">
+        <v>29</v>
+      </c>
+      <c r="O47" s="41">
+        <v>30</v>
+      </c>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="42"/>
+    </row>
+    <row r="48" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="53"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="46"/>
+    </row>
+    <row r="49" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B50" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="36">
+        <v>1</v>
+      </c>
+      <c r="D50" s="37">
+        <v>2</v>
+      </c>
+      <c r="E50" s="37">
+        <v>3</v>
+      </c>
+      <c r="F50" s="37">
+        <v>4</v>
+      </c>
+      <c r="G50" s="37">
+        <v>5</v>
+      </c>
+      <c r="H50" s="37">
+        <v>6</v>
+      </c>
+      <c r="I50" s="38">
+        <v>7</v>
+      </c>
+      <c r="J50" s="25"/>
+      <c r="K50" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="36"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="37">
+        <v>2</v>
+      </c>
+      <c r="R50" s="38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B51" s="52"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="42"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B52" s="52"/>
+      <c r="C52" s="40">
+        <v>8</v>
+      </c>
+      <c r="D52" s="41">
+        <v>9</v>
+      </c>
+      <c r="E52" s="41">
+        <v>10</v>
+      </c>
+      <c r="F52" s="41">
+        <v>11</v>
+      </c>
+      <c r="G52" s="41">
+        <v>12</v>
+      </c>
+      <c r="H52" s="41">
+        <v>13</v>
+      </c>
+      <c r="I52" s="42">
+        <v>14</v>
+      </c>
+      <c r="J52" s="25"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="40">
+        <v>4</v>
+      </c>
+      <c r="M52" s="41">
+        <v>5</v>
+      </c>
+      <c r="N52" s="41">
+        <v>6</v>
+      </c>
+      <c r="O52" s="41">
+        <v>7</v>
+      </c>
+      <c r="P52" s="41">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="41">
+        <v>9</v>
+      </c>
+      <c r="R52" s="42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B53" s="52"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="42"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B54" s="52"/>
+      <c r="C54" s="40">
+        <v>15</v>
+      </c>
+      <c r="D54" s="41">
+        <v>16</v>
+      </c>
+      <c r="E54" s="41">
+        <v>17</v>
+      </c>
+      <c r="F54" s="41">
+        <v>18</v>
+      </c>
+      <c r="G54" s="41">
+        <v>19</v>
+      </c>
+      <c r="H54" s="41">
+        <v>20</v>
+      </c>
+      <c r="I54" s="42">
+        <v>21</v>
+      </c>
+      <c r="J54" s="25"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="40">
+        <v>11</v>
+      </c>
+      <c r="M54" s="41">
+        <v>12</v>
+      </c>
+      <c r="N54" s="41">
+        <v>13</v>
+      </c>
+      <c r="O54" s="41">
+        <v>14</v>
+      </c>
+      <c r="P54" s="41">
+        <v>15</v>
+      </c>
+      <c r="Q54" s="41">
+        <v>16</v>
+      </c>
+      <c r="R54" s="42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B55" s="52"/>
+      <c r="C55" s="40">
+        <v>22</v>
+      </c>
+      <c r="D55" s="41">
+        <v>23</v>
+      </c>
+      <c r="E55" s="41">
+        <v>24</v>
+      </c>
+      <c r="F55" s="41">
+        <v>25</v>
+      </c>
+      <c r="G55" s="41">
+        <v>26</v>
+      </c>
+      <c r="H55" s="41">
+        <v>27</v>
+      </c>
+      <c r="I55" s="42">
+        <v>28</v>
+      </c>
+      <c r="J55" s="25"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="42"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B56" s="52"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="40">
+        <v>18</v>
+      </c>
+      <c r="M56" s="41">
+        <v>19</v>
+      </c>
+      <c r="N56" s="41">
+        <v>20</v>
+      </c>
+      <c r="O56" s="41">
+        <v>21</v>
+      </c>
+      <c r="P56" s="41">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="41">
+        <v>23</v>
+      </c>
+      <c r="R56" s="42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B57" s="52"/>
+      <c r="C57" s="40">
+        <v>29</v>
+      </c>
+      <c r="D57" s="41">
+        <v>30</v>
+      </c>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="42"/>
+    </row>
+    <row r="58" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="53"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="61"/>
+      <c r="L58" s="40">
+        <v>25</v>
+      </c>
+      <c r="M58" s="41">
+        <v>26</v>
+      </c>
+      <c r="N58" s="41">
+        <v>27</v>
+      </c>
+      <c r="O58" s="41">
+        <v>28</v>
+      </c>
+      <c r="P58" s="41">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="41">
+        <v>30</v>
+      </c>
+      <c r="R58" s="42">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="62"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="46"/>
+    </row>
+    <row r="60" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37">
+        <v>1</v>
+      </c>
+      <c r="F60" s="37">
+        <v>2</v>
+      </c>
+      <c r="G60" s="37">
+        <v>3</v>
+      </c>
+      <c r="H60" s="37">
+        <v>4</v>
+      </c>
+      <c r="I60" s="38">
+        <v>5</v>
+      </c>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="33"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B61" s="64"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L61" s="36">
+        <v>1</v>
+      </c>
+      <c r="M61" s="37">
+        <v>2</v>
+      </c>
+      <c r="N61" s="37">
+        <v>3</v>
+      </c>
+      <c r="O61" s="37">
+        <v>4</v>
+      </c>
+      <c r="P61" s="37">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="37">
+        <v>6</v>
+      </c>
+      <c r="R61" s="38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B62" s="64"/>
+      <c r="C62" s="40">
+        <v>6</v>
+      </c>
+      <c r="D62" s="41">
+        <v>7</v>
+      </c>
+      <c r="E62" s="41">
+        <v>8</v>
+      </c>
+      <c r="F62" s="41">
+        <v>9</v>
+      </c>
+      <c r="G62" s="41">
+        <v>10</v>
+      </c>
+      <c r="H62" s="41">
+        <v>11</v>
+      </c>
+      <c r="I62" s="42">
+        <v>12</v>
+      </c>
+      <c r="J62" s="25"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="40"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="42"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B63" s="64"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="40">
+        <v>8</v>
+      </c>
+      <c r="M63" s="41">
+        <v>9</v>
+      </c>
+      <c r="N63" s="41">
+        <v>10</v>
+      </c>
+      <c r="O63" s="41">
+        <v>11</v>
+      </c>
+      <c r="P63" s="41">
+        <v>12</v>
+      </c>
+      <c r="Q63" s="41">
+        <v>13</v>
+      </c>
+      <c r="R63" s="42">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B64" s="64"/>
+      <c r="C64" s="40">
+        <v>13</v>
+      </c>
+      <c r="D64" s="41">
+        <v>14</v>
+      </c>
+      <c r="E64" s="41">
+        <v>15</v>
+      </c>
+      <c r="F64" s="41">
+        <v>16</v>
+      </c>
+      <c r="G64" s="41">
+        <v>17</v>
+      </c>
+      <c r="H64" s="41">
+        <v>18</v>
+      </c>
+      <c r="I64" s="42">
+        <v>19</v>
+      </c>
+      <c r="J64" s="25"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="42"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B65" s="64"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="40">
+        <v>15</v>
+      </c>
+      <c r="M65" s="41">
+        <v>16</v>
+      </c>
+      <c r="N65" s="41">
+        <v>17</v>
+      </c>
+      <c r="O65" s="41">
+        <v>18</v>
+      </c>
+      <c r="P65" s="41">
+        <v>19</v>
+      </c>
+      <c r="Q65" s="41">
+        <v>20</v>
+      </c>
+      <c r="R65" s="42">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B66" s="64"/>
+      <c r="C66" s="40">
+        <v>20</v>
+      </c>
+      <c r="D66" s="41">
+        <v>21</v>
+      </c>
+      <c r="E66" s="41">
+        <v>22</v>
+      </c>
+      <c r="F66" s="41">
+        <v>23</v>
+      </c>
+      <c r="G66" s="41">
+        <v>24</v>
+      </c>
+      <c r="H66" s="41">
+        <v>25</v>
+      </c>
+      <c r="I66" s="42">
+        <v>26</v>
+      </c>
+      <c r="J66" s="25"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="42"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B67" s="64"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="40">
+        <v>22</v>
+      </c>
+      <c r="M67" s="41">
+        <v>23</v>
+      </c>
+      <c r="N67" s="41">
+        <v>24</v>
+      </c>
+      <c r="O67" s="41">
+        <v>25</v>
+      </c>
+      <c r="P67" s="41">
+        <v>26</v>
+      </c>
+      <c r="Q67" s="41">
+        <v>27</v>
+      </c>
+      <c r="R67" s="42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B68" s="64"/>
+      <c r="C68" s="40">
+        <v>27</v>
+      </c>
+      <c r="D68" s="41">
+        <v>28</v>
+      </c>
+      <c r="E68" s="41">
+        <v>29</v>
+      </c>
+      <c r="F68" s="41">
+        <v>30</v>
+      </c>
+      <c r="G68" s="41">
+        <v>31</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="40"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="42"/>
+    </row>
+    <row r="69" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="65"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="40">
+        <v>29</v>
+      </c>
+      <c r="M69" s="41">
+        <v>30</v>
+      </c>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="42"/>
+    </row>
+    <row r="70" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="59"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="46"/>
+    </row>
+    <row r="71" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37">
+        <v>1</v>
+      </c>
+      <c r="I71" s="38">
+        <v>2</v>
+      </c>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="33"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B72" s="52"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="36"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37">
+        <v>1</v>
+      </c>
+      <c r="O72" s="37">
+        <v>2</v>
+      </c>
+      <c r="P72" s="37">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="37">
+        <v>4</v>
+      </c>
+      <c r="R72" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B73" s="52"/>
+      <c r="C73" s="40">
+        <v>3</v>
+      </c>
+      <c r="D73" s="41">
+        <v>4</v>
+      </c>
+      <c r="E73" s="41">
+        <v>5</v>
+      </c>
+      <c r="F73" s="41">
+        <v>6</v>
+      </c>
+      <c r="G73" s="41">
+        <v>7</v>
+      </c>
+      <c r="H73" s="41">
+        <v>8</v>
+      </c>
+      <c r="I73" s="42">
+        <v>9</v>
+      </c>
+      <c r="J73" s="25"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B74" s="52"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="40">
+        <v>6</v>
+      </c>
+      <c r="M74" s="41">
+        <v>7</v>
+      </c>
+      <c r="N74" s="41">
+        <v>8</v>
+      </c>
+      <c r="O74" s="41">
+        <v>9</v>
+      </c>
+      <c r="P74" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="41">
+        <v>11</v>
+      </c>
+      <c r="R74" s="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B75" s="52"/>
+      <c r="C75" s="40">
+        <v>10</v>
+      </c>
+      <c r="D75" s="41">
+        <v>11</v>
+      </c>
+      <c r="E75" s="41">
+        <v>12</v>
+      </c>
+      <c r="F75" s="41">
+        <v>13</v>
+      </c>
+      <c r="G75" s="41">
+        <v>14</v>
+      </c>
+      <c r="H75" s="41">
+        <v>15</v>
+      </c>
+      <c r="I75" s="42">
+        <v>16</v>
+      </c>
+      <c r="J75" s="25"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="42"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B76" s="52"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="40">
+        <v>13</v>
+      </c>
+      <c r="M76" s="41">
+        <v>14</v>
+      </c>
+      <c r="N76" s="41">
+        <v>15</v>
+      </c>
+      <c r="O76" s="41">
+        <v>16</v>
+      </c>
+      <c r="P76" s="41">
+        <v>17</v>
+      </c>
+      <c r="Q76" s="41">
+        <v>18</v>
+      </c>
+      <c r="R76" s="42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B77" s="52"/>
+      <c r="C77" s="40">
+        <v>17</v>
+      </c>
+      <c r="D77" s="41">
+        <v>18</v>
+      </c>
+      <c r="E77" s="41">
+        <v>19</v>
+      </c>
+      <c r="F77" s="41">
+        <v>20</v>
+      </c>
+      <c r="G77" s="41">
+        <v>21</v>
+      </c>
+      <c r="H77" s="41">
+        <v>22</v>
+      </c>
+      <c r="I77" s="42">
+        <v>23</v>
+      </c>
+      <c r="J77" s="25"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="42"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B78" s="52"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="40">
+        <v>20</v>
+      </c>
+      <c r="M78" s="41">
+        <v>21</v>
+      </c>
+      <c r="N78" s="41">
+        <v>22</v>
+      </c>
+      <c r="O78" s="41">
+        <v>23</v>
+      </c>
+      <c r="P78" s="41">
+        <v>24</v>
+      </c>
+      <c r="Q78" s="41">
+        <v>25</v>
+      </c>
+      <c r="R78" s="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B79" s="52"/>
+      <c r="C79" s="40">
+        <v>24</v>
+      </c>
+      <c r="D79" s="41">
+        <v>25</v>
+      </c>
+      <c r="E79" s="41">
+        <v>26</v>
+      </c>
+      <c r="F79" s="41">
+        <v>27</v>
+      </c>
+      <c r="G79" s="41">
+        <v>28</v>
+      </c>
+      <c r="H79" s="41">
+        <v>29</v>
+      </c>
+      <c r="I79" s="42">
+        <v>30</v>
+      </c>
+      <c r="J79" s="25"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="40"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="42"/>
+    </row>
+    <row r="80" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="53"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="40">
+        <v>27</v>
+      </c>
+      <c r="M80" s="41">
+        <v>28</v>
+      </c>
+      <c r="N80" s="41">
+        <v>29</v>
+      </c>
+      <c r="O80" s="41">
+        <v>30</v>
+      </c>
+      <c r="P80" s="41">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="42"/>
+    </row>
+    <row r="81" spans="1:18" s="31" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="33"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="53"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+      <c r="P81" s="49"/>
+      <c r="Q81" s="49"/>
+      <c r="R81" s="46"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B82" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="36">
+        <v>1</v>
+      </c>
+      <c r="D82" s="37">
+        <v>2</v>
+      </c>
+      <c r="E82" s="37">
+        <v>3</v>
+      </c>
+      <c r="F82" s="37">
+        <v>4</v>
+      </c>
+      <c r="G82" s="37">
+        <v>5</v>
+      </c>
+      <c r="H82" s="37">
+        <v>6</v>
+      </c>
+      <c r="I82" s="38">
+        <v>7</v>
+      </c>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B83" s="52"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B84" s="52"/>
+      <c r="C84" s="40">
+        <v>8</v>
+      </c>
+      <c r="D84" s="41">
+        <v>9</v>
+      </c>
+      <c r="E84" s="41">
+        <v>10</v>
+      </c>
+      <c r="F84" s="41">
+        <v>11</v>
+      </c>
+      <c r="G84" s="41">
+        <v>12</v>
+      </c>
+      <c r="H84" s="41">
+        <v>13</v>
+      </c>
+      <c r="I84" s="42">
+        <v>14</v>
+      </c>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B85" s="52"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B86" s="52"/>
+      <c r="C86" s="40">
+        <v>15</v>
+      </c>
+      <c r="D86" s="41">
+        <v>16</v>
+      </c>
+      <c r="E86" s="41">
+        <v>17</v>
+      </c>
+      <c r="F86" s="41">
+        <v>18</v>
+      </c>
+      <c r="G86" s="41">
+        <v>19</v>
+      </c>
+      <c r="H86" s="41">
+        <v>20</v>
+      </c>
+      <c r="I86" s="42">
+        <v>21</v>
+      </c>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B87" s="52"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B88" s="52"/>
+      <c r="C88" s="40">
+        <v>22</v>
+      </c>
+      <c r="D88" s="41">
+        <v>23</v>
+      </c>
+      <c r="E88" s="41">
+        <v>24</v>
+      </c>
+      <c r="F88" s="41">
+        <v>25</v>
+      </c>
+      <c r="G88" s="41">
+        <v>26</v>
+      </c>
+      <c r="H88" s="41">
+        <v>27</v>
+      </c>
+      <c r="I88" s="42">
+        <v>28</v>
+      </c>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B89" s="52"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B90" s="52"/>
+      <c r="C90" s="40">
+        <v>29</v>
+      </c>
+      <c r="D90" s="41">
+        <v>30</v>
+      </c>
+      <c r="E90" s="41">
+        <v>31</v>
+      </c>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+    </row>
+    <row r="91" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B91" s="53"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B82:B91"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="B15:B26"/>
+    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="K4:K13"/>
+    <mergeCell ref="K15:K24"/>
+    <mergeCell ref="K26:K37"/>
+    <mergeCell ref="K72:K81"/>
+    <mergeCell ref="K39:K48"/>
+    <mergeCell ref="K50:K59"/>
+    <mergeCell ref="K61:K70"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B60:B69"/>
+    <mergeCell ref="B71:B80"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2CCB6B-6A1C-4331-B1C7-CB01EE348C84}">
   <dimension ref="B2:D3"/>
   <sheetViews>

--- a/就活/就活情報.xlsx
+++ b/就活/就活情報.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\github\keep\就活\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347087\Desktop\github\keep\就活\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5E2F01-B02E-4CBA-A0EC-2A8C63404FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03CA88-0EFB-45EB-8C27-6DC70E17F868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="4515" windowWidth="19200" windowHeight="15345" xr2:uid="{1FDE35BD-F711-483A-94A6-8E3E0233F6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1FDE35BD-F711-483A-94A6-8E3E0233F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="就活メモ" sheetId="1" r:id="rId1"/>
@@ -1514,6 +1514,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,12 +1555,6 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1584,9 +1584,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1624,7 +1624,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1730,7 +1730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1872,7 +1872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7D413F-FD6C-4F6A-B463-612CC8399390}">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2255,7 +2255,7 @@
       <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="62" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -2973,7 +2973,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="75" t="s">
+      <c r="B69" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="50"/>
@@ -3253,7 +3253,7 @@
       <c r="R3" s="24"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="64" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="32"/>
@@ -3272,7 +3272,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="24"/>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="67" t="s">
         <v>47</v>
       </c>
       <c r="L4" s="35"/>
@@ -3292,7 +3292,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -3301,7 +3301,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="38"/>
       <c r="J5" s="24"/>
-      <c r="K5" s="66"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="39"/>
       <c r="M5" s="37"/>
       <c r="N5" s="37"/>
@@ -3311,7 +3311,7 @@
       <c r="R5" s="38"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="63"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="36">
         <v>5</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="24"/>
-      <c r="K6" s="66"/>
+      <c r="K6" s="68"/>
       <c r="L6" s="39">
         <v>5</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
@@ -3367,7 +3367,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="38"/>
       <c r="J7" s="24"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="68"/>
       <c r="L7" s="39"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
@@ -3377,7 +3377,7 @@
       <c r="R7" s="38"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B8" s="63"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="36">
         <v>12</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="24"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="39">
         <v>12</v>
       </c>
@@ -3424,7 +3424,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -3433,7 +3433,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="38"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="66"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="39"/>
       <c r="M9" s="37"/>
       <c r="N9" s="37"/>
@@ -3443,7 +3443,7 @@
       <c r="R9" s="38"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="36">
         <v>19</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>25</v>
       </c>
       <c r="J10" s="24"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="39">
         <v>19</v>
       </c>
@@ -3490,7 +3490,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -3499,7 +3499,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="38"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="66"/>
+      <c r="K11" s="68"/>
       <c r="L11" s="39"/>
       <c r="M11" s="37"/>
       <c r="N11" s="37"/>
@@ -3509,7 +3509,7 @@
       <c r="R11" s="38"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="36">
         <v>26</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="68"/>
       <c r="L12" s="39">
         <v>26</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="R12" s="38"/>
     </row>
     <row r="13" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="64"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="40"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
@@ -3563,7 +3563,7 @@
       <c r="H13" s="41"/>
       <c r="I13" s="42"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="67"/>
+      <c r="K13" s="69"/>
       <c r="L13" s="43"/>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -3592,7 +3592,7 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="64" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="32"/>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="24"/>
-      <c r="K15" s="68" t="s">
+      <c r="K15" s="70" t="s">
         <v>50</v>
       </c>
       <c r="L15" s="32"/>
@@ -3619,7 +3619,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -3628,7 +3628,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="69"/>
+      <c r="K16" s="71"/>
       <c r="L16" s="36"/>
       <c r="M16" s="37"/>
       <c r="N16" s="37"/>
@@ -3638,7 +3638,7 @@
       <c r="R16" s="38"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="63"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="36">
         <v>2</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>8</v>
       </c>
       <c r="J17" s="24"/>
-      <c r="K17" s="69"/>
+      <c r="K17" s="71"/>
       <c r="L17" s="36">
         <v>2</v>
       </c>
@@ -3685,7 +3685,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
@@ -3696,7 +3696,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="38"/>
       <c r="J18" s="24"/>
-      <c r="K18" s="69"/>
+      <c r="K18" s="71"/>
       <c r="L18" s="36"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37"/>
@@ -3706,7 +3706,7 @@
       <c r="R18" s="38"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="36">
         <v>9</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="24"/>
-      <c r="K19" s="69"/>
+      <c r="K19" s="71"/>
       <c r="L19" s="36">
         <v>9</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37" t="s">
         <v>51</v>
@@ -3766,7 +3766,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="38"/>
       <c r="J20" s="24"/>
-      <c r="K20" s="69"/>
+      <c r="K20" s="71"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37"/>
@@ -3776,7 +3776,7 @@
       <c r="R20" s="38"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B21" s="63"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="36">
         <v>16</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="J21" s="24"/>
-      <c r="K21" s="69"/>
+      <c r="K21" s="71"/>
       <c r="L21" s="36">
         <v>16</v>
       </c>
@@ -3823,7 +3823,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -3832,7 +3832,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="38"/>
       <c r="J22" s="24"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="71"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
@@ -3842,7 +3842,7 @@
       <c r="R22" s="38"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="36">
         <v>23</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>29</v>
       </c>
       <c r="J23" s="24"/>
-      <c r="K23" s="69"/>
+      <c r="K23" s="71"/>
       <c r="L23" s="36">
         <v>23</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="R23" s="38"/>
     </row>
     <row r="24" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="63"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -3896,7 +3896,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="38"/>
       <c r="J24" s="24"/>
-      <c r="K24" s="70"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="40"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
@@ -3906,7 +3906,7 @@
       <c r="R24" s="42"/>
     </row>
     <row r="25" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="63"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="36">
         <v>30</v>
       </c>
@@ -3927,7 +3927,7 @@
       <c r="R25" s="24"/>
     </row>
     <row r="26" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="64"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="40"/>
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
@@ -3936,7 +3936,7 @@
       <c r="H26" s="41"/>
       <c r="I26" s="42"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="64" t="s">
         <v>52</v>
       </c>
       <c r="L26" s="32"/>
@@ -3959,7 +3959,7 @@
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="63"/>
+      <c r="K27" s="65"/>
       <c r="L27" s="36"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -3969,7 +3969,7 @@
       <c r="R27" s="38"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="64" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="32"/>
@@ -3992,7 +3992,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="24"/>
-      <c r="K28" s="63"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="36">
         <v>2</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B29" s="63"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
@@ -4025,7 +4025,7 @@
       <c r="H29" s="37"/>
       <c r="I29" s="38"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="63"/>
+      <c r="K29" s="65"/>
       <c r="L29" s="36"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
@@ -4035,7 +4035,7 @@
       <c r="R29" s="38"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B30" s="63"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="36">
         <v>7</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="24"/>
-      <c r="K30" s="63"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="36">
         <v>9</v>
       </c>
@@ -4082,7 +4082,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B31" s="63"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
@@ -4091,7 +4091,7 @@
       <c r="H31" s="37"/>
       <c r="I31" s="38"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="63"/>
+      <c r="K31" s="65"/>
       <c r="L31" s="36"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
@@ -4101,7 +4101,7 @@
       <c r="R31" s="38"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B32" s="63"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="36">
         <v>14</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="24"/>
-      <c r="K32" s="63"/>
+      <c r="K32" s="65"/>
       <c r="L32" s="36">
         <v>16</v>
       </c>
@@ -4148,7 +4148,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B33" s="63"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
@@ -4157,7 +4157,7 @@
       <c r="H33" s="37"/>
       <c r="I33" s="38"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="63"/>
+      <c r="K33" s="65"/>
       <c r="L33" s="36"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -4167,7 +4167,7 @@
       <c r="R33" s="38"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B34" s="63"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="36">
         <v>21</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>27</v>
       </c>
       <c r="J34" s="24"/>
-      <c r="K34" s="63"/>
+      <c r="K34" s="65"/>
       <c r="L34" s="36">
         <v>23</v>
       </c>
@@ -4214,7 +4214,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B35" s="63"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -4223,7 +4223,7 @@
       <c r="H35" s="37"/>
       <c r="I35" s="38"/>
       <c r="J35" s="24"/>
-      <c r="K35" s="63"/>
+      <c r="K35" s="65"/>
       <c r="L35" s="36"/>
       <c r="M35" s="37"/>
       <c r="N35" s="37"/>
@@ -4233,7 +4233,7 @@
       <c r="R35" s="38"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="36">
         <v>28</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="38"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="63"/>
+      <c r="K36" s="65"/>
       <c r="L36" s="36">
         <v>30</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="R36" s="38"/>
     </row>
     <row r="37" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="64"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="40"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
@@ -4273,7 +4273,7 @@
       <c r="H37" s="41"/>
       <c r="I37" s="42"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="64"/>
+      <c r="K37" s="66"/>
       <c r="L37" s="40"/>
       <c r="M37" s="41"/>
       <c r="N37" s="41"/>
@@ -4302,7 +4302,7 @@
       <c r="R38" s="24"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C39" s="32"/>
@@ -4319,7 +4319,7 @@
         <v>3</v>
       </c>
       <c r="J39" s="24"/>
-      <c r="K39" s="68" t="s">
+      <c r="K39" s="70" t="s">
         <v>55</v>
       </c>
       <c r="L39" s="32"/>
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B40" s="63"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -4350,7 +4350,7 @@
       <c r="H40" s="37"/>
       <c r="I40" s="38"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="69"/>
+      <c r="K40" s="71"/>
       <c r="L40" s="36"/>
       <c r="M40" s="37"/>
       <c r="N40" s="37"/>
@@ -4360,7 +4360,7 @@
       <c r="R40" s="38"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B41" s="63"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="36">
         <v>4</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="J41" s="24"/>
-      <c r="K41" s="69"/>
+      <c r="K41" s="71"/>
       <c r="L41" s="36">
         <v>6</v>
       </c>
@@ -4407,7 +4407,7 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B42" s="63"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -4416,7 +4416,7 @@
       <c r="H42" s="37"/>
       <c r="I42" s="38"/>
       <c r="J42" s="24"/>
-      <c r="K42" s="69"/>
+      <c r="K42" s="71"/>
       <c r="L42" s="36"/>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
@@ -4426,7 +4426,7 @@
       <c r="R42" s="38"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B43" s="63"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="36">
         <v>11</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>17</v>
       </c>
       <c r="J43" s="24"/>
-      <c r="K43" s="69"/>
+      <c r="K43" s="71"/>
       <c r="L43" s="36">
         <v>13</v>
       </c>
@@ -4473,7 +4473,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B44" s="63"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="36"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -4482,7 +4482,7 @@
       <c r="H44" s="37"/>
       <c r="I44" s="38"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="69"/>
+      <c r="K44" s="71"/>
       <c r="L44" s="36"/>
       <c r="M44" s="37"/>
       <c r="N44" s="37"/>
@@ -4492,7 +4492,7 @@
       <c r="R44" s="38"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B45" s="63"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="36">
         <v>18</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>24</v>
       </c>
       <c r="J45" s="24"/>
-      <c r="K45" s="69"/>
+      <c r="K45" s="71"/>
       <c r="L45" s="36">
         <v>20</v>
       </c>
@@ -4539,7 +4539,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B46" s="63"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -4548,7 +4548,7 @@
       <c r="H46" s="37"/>
       <c r="I46" s="38"/>
       <c r="J46" s="24"/>
-      <c r="K46" s="69"/>
+      <c r="K46" s="71"/>
       <c r="L46" s="36"/>
       <c r="M46" s="37"/>
       <c r="N46" s="37"/>
@@ -4558,7 +4558,7 @@
       <c r="R46" s="38"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B47" s="63"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="36">
         <v>25</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>31</v>
       </c>
       <c r="J47" s="24"/>
-      <c r="K47" s="69"/>
+      <c r="K47" s="71"/>
       <c r="L47" s="36">
         <v>27</v>
       </c>
@@ -4599,7 +4599,7 @@
       <c r="R47" s="38"/>
     </row>
     <row r="48" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="64"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="40"/>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -4608,7 +4608,7 @@
       <c r="H48" s="41"/>
       <c r="I48" s="42"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="70"/>
+      <c r="K48" s="72"/>
       <c r="L48" s="40"/>
       <c r="M48" s="41"/>
       <c r="N48" s="41"/>
@@ -4637,7 +4637,7 @@
       <c r="R49" s="24"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B50" s="62" t="s">
+      <c r="B50" s="64" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="32">
@@ -4662,7 +4662,7 @@
         <v>7</v>
       </c>
       <c r="J50" s="24"/>
-      <c r="K50" s="68" t="s">
+      <c r="K50" s="70" t="s">
         <v>46</v>
       </c>
       <c r="L50" s="32"/>
@@ -4680,7 +4680,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B51" s="63"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="36"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
@@ -4689,7 +4689,7 @@
       <c r="H51" s="37"/>
       <c r="I51" s="38"/>
       <c r="J51" s="24"/>
-      <c r="K51" s="69"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="36"/>
       <c r="M51" s="37"/>
       <c r="N51" s="37"/>
@@ -4699,7 +4699,7 @@
       <c r="R51" s="38"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B52" s="63"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="36">
         <v>8</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>14</v>
       </c>
       <c r="J52" s="24"/>
-      <c r="K52" s="69"/>
+      <c r="K52" s="71"/>
       <c r="L52" s="36">
         <v>4</v>
       </c>
@@ -4746,7 +4746,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B53" s="63"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="36"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
@@ -4755,7 +4755,7 @@
       <c r="H53" s="37"/>
       <c r="I53" s="38"/>
       <c r="J53" s="24"/>
-      <c r="K53" s="69"/>
+      <c r="K53" s="71"/>
       <c r="L53" s="36"/>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
@@ -4765,7 +4765,7 @@
       <c r="R53" s="38"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B54" s="63"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="36">
         <v>15</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>21</v>
       </c>
       <c r="J54" s="24"/>
-      <c r="K54" s="69"/>
+      <c r="K54" s="71"/>
       <c r="L54" s="36">
         <v>11</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B55" s="63"/>
+      <c r="B55" s="65"/>
       <c r="C55" s="36">
         <v>22</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>28</v>
       </c>
       <c r="J55" s="24"/>
-      <c r="K55" s="69"/>
+      <c r="K55" s="71"/>
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
       <c r="N55" s="37"/>
@@ -4845,7 +4845,7 @@
       <c r="R55" s="38"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B56" s="63"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="36"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -4854,7 +4854,7 @@
       <c r="H56" s="37"/>
       <c r="I56" s="38"/>
       <c r="J56" s="24"/>
-      <c r="K56" s="69"/>
+      <c r="K56" s="71"/>
       <c r="L56" s="36">
         <v>18</v>
       </c>
@@ -4878,7 +4878,7 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B57" s="63"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="36">
         <v>29</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="H57" s="37"/>
       <c r="I57" s="38"/>
       <c r="J57" s="24"/>
-      <c r="K57" s="69"/>
+      <c r="K57" s="71"/>
       <c r="L57" s="36"/>
       <c r="M57" s="37"/>
       <c r="N57" s="37"/>
@@ -4901,7 +4901,7 @@
       <c r="R57" s="38"/>
     </row>
     <row r="58" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="64"/>
+      <c r="B58" s="66"/>
       <c r="C58" s="40"/>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
@@ -4910,7 +4910,7 @@
       <c r="H58" s="41"/>
       <c r="I58" s="42"/>
       <c r="J58" s="24"/>
-      <c r="K58" s="69"/>
+      <c r="K58" s="71"/>
       <c r="L58" s="36">
         <v>25</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="H59" s="24"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="70"/>
+      <c r="K59" s="72"/>
       <c r="L59" s="40"/>
       <c r="M59" s="41"/>
       <c r="N59" s="41"/>
@@ -4953,7 +4953,7 @@
       <c r="R59" s="42"/>
     </row>
     <row r="60" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="73" t="s">
         <v>57</v>
       </c>
       <c r="C60" s="32"/>
@@ -4984,7 +4984,7 @@
       <c r="R60" s="24"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B61" s="72"/>
+      <c r="B61" s="74"/>
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
@@ -4993,7 +4993,7 @@
       <c r="H61" s="37"/>
       <c r="I61" s="38"/>
       <c r="J61" s="24"/>
-      <c r="K61" s="68" t="s">
+      <c r="K61" s="70" t="s">
         <v>49</v>
       </c>
       <c r="L61" s="32">
@@ -5019,7 +5019,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B62" s="72"/>
+      <c r="B62" s="74"/>
       <c r="C62" s="36">
         <v>6</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="J62" s="24"/>
-      <c r="K62" s="69"/>
+      <c r="K62" s="71"/>
       <c r="L62" s="36"/>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
@@ -5052,7 +5052,7 @@
       <c r="R62" s="38"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B63" s="72"/>
+      <c r="B63" s="74"/>
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
@@ -5061,7 +5061,7 @@
       <c r="H63" s="37"/>
       <c r="I63" s="38"/>
       <c r="J63" s="24"/>
-      <c r="K63" s="69"/>
+      <c r="K63" s="71"/>
       <c r="L63" s="36">
         <v>8</v>
       </c>
@@ -5085,7 +5085,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B64" s="72"/>
+      <c r="B64" s="74"/>
       <c r="C64" s="36">
         <v>13</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>19</v>
       </c>
       <c r="J64" s="24"/>
-      <c r="K64" s="69"/>
+      <c r="K64" s="71"/>
       <c r="L64" s="36"/>
       <c r="M64" s="37"/>
       <c r="N64" s="37"/>
@@ -5118,7 +5118,7 @@
       <c r="R64" s="38"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B65" s="72"/>
+      <c r="B65" s="74"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
@@ -5127,7 +5127,7 @@
       <c r="H65" s="37"/>
       <c r="I65" s="38"/>
       <c r="J65" s="24"/>
-      <c r="K65" s="69"/>
+      <c r="K65" s="71"/>
       <c r="L65" s="36">
         <v>15</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B66" s="72"/>
+      <c r="B66" s="74"/>
       <c r="C66" s="36">
         <v>20</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>26</v>
       </c>
       <c r="J66" s="24"/>
-      <c r="K66" s="69"/>
+      <c r="K66" s="71"/>
       <c r="L66" s="36"/>
       <c r="M66" s="37"/>
       <c r="N66" s="37"/>
@@ -5184,7 +5184,7 @@
       <c r="R66" s="38"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B67" s="72"/>
+      <c r="B67" s="74"/>
       <c r="C67" s="36"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
@@ -5193,7 +5193,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="38"/>
       <c r="J67" s="24"/>
-      <c r="K67" s="69"/>
+      <c r="K67" s="71"/>
       <c r="L67" s="36">
         <v>22</v>
       </c>
@@ -5217,7 +5217,7 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B68" s="72"/>
+      <c r="B68" s="74"/>
       <c r="C68" s="36">
         <v>27</v>
       </c>
@@ -5236,7 +5236,7 @@
       <c r="H68" s="37"/>
       <c r="I68" s="38"/>
       <c r="J68" s="24"/>
-      <c r="K68" s="69"/>
+      <c r="K68" s="71"/>
       <c r="L68" s="36"/>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
@@ -5246,7 +5246,7 @@
       <c r="R68" s="38"/>
     </row>
     <row r="69" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="73"/>
+      <c r="B69" s="75"/>
       <c r="C69" s="40"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
@@ -5255,7 +5255,7 @@
       <c r="H69" s="41"/>
       <c r="I69" s="42"/>
       <c r="J69" s="24"/>
-      <c r="K69" s="69"/>
+      <c r="K69" s="71"/>
       <c r="L69" s="36">
         <v>29</v>
       </c>
@@ -5278,7 +5278,7 @@
       <c r="H70" s="24"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
-      <c r="K70" s="70"/>
+      <c r="K70" s="72"/>
       <c r="L70" s="40"/>
       <c r="M70" s="41"/>
       <c r="N70" s="41"/>
@@ -5288,7 +5288,7 @@
       <c r="R70" s="42"/>
     </row>
     <row r="71" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="62" t="s">
+      <c r="B71" s="64" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="32"/>
@@ -5313,7 +5313,7 @@
       <c r="R71" s="24"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B72" s="63"/>
+      <c r="B72" s="65"/>
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
@@ -5322,7 +5322,7 @@
       <c r="H72" s="37"/>
       <c r="I72" s="38"/>
       <c r="J72" s="24"/>
-      <c r="K72" s="62" t="s">
+      <c r="K72" s="64" t="s">
         <v>53</v>
       </c>
       <c r="L72" s="32"/>
@@ -5344,7 +5344,7 @@
       </c>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B73" s="63"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="36">
         <v>3</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>9</v>
       </c>
       <c r="J73" s="24"/>
-      <c r="K73" s="63"/>
+      <c r="K73" s="65"/>
       <c r="L73" s="36"/>
       <c r="M73" s="37"/>
       <c r="N73" s="37"/>
@@ -5377,7 +5377,7 @@
       <c r="R73" s="38"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B74" s="63"/>
+      <c r="B74" s="65"/>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
@@ -5386,7 +5386,7 @@
       <c r="H74" s="37"/>
       <c r="I74" s="38"/>
       <c r="J74" s="24"/>
-      <c r="K74" s="63"/>
+      <c r="K74" s="65"/>
       <c r="L74" s="36">
         <v>6</v>
       </c>
@@ -5410,7 +5410,7 @@
       </c>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B75" s="63"/>
+      <c r="B75" s="65"/>
       <c r="C75" s="36">
         <v>10</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>16</v>
       </c>
       <c r="J75" s="24"/>
-      <c r="K75" s="63"/>
+      <c r="K75" s="65"/>
       <c r="L75" s="36"/>
       <c r="M75" s="37"/>
       <c r="N75" s="37"/>
@@ -5443,7 +5443,7 @@
       <c r="R75" s="38"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B76" s="63"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
@@ -5452,7 +5452,7 @@
       <c r="H76" s="37"/>
       <c r="I76" s="38"/>
       <c r="J76" s="24"/>
-      <c r="K76" s="63"/>
+      <c r="K76" s="65"/>
       <c r="L76" s="36">
         <v>13</v>
       </c>
@@ -5476,7 +5476,7 @@
       </c>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B77" s="63"/>
+      <c r="B77" s="65"/>
       <c r="C77" s="36">
         <v>17</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>23</v>
       </c>
       <c r="J77" s="24"/>
-      <c r="K77" s="63"/>
+      <c r="K77" s="65"/>
       <c r="L77" s="36"/>
       <c r="M77" s="37"/>
       <c r="N77" s="37"/>
@@ -5509,7 +5509,7 @@
       <c r="R77" s="38"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B78" s="63"/>
+      <c r="B78" s="65"/>
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
@@ -5518,7 +5518,7 @@
       <c r="H78" s="37"/>
       <c r="I78" s="38"/>
       <c r="J78" s="24"/>
-      <c r="K78" s="63"/>
+      <c r="K78" s="65"/>
       <c r="L78" s="36">
         <v>20</v>
       </c>
@@ -5542,7 +5542,7 @@
       </c>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B79" s="63"/>
+      <c r="B79" s="65"/>
       <c r="C79" s="36">
         <v>24</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>30</v>
       </c>
       <c r="J79" s="24"/>
-      <c r="K79" s="63"/>
+      <c r="K79" s="65"/>
       <c r="L79" s="36"/>
       <c r="M79" s="37"/>
       <c r="N79" s="37"/>
@@ -5575,7 +5575,7 @@
       <c r="R79" s="38"/>
     </row>
     <row r="80" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="64"/>
+      <c r="B80" s="66"/>
       <c r="C80" s="40"/>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -5584,7 +5584,7 @@
       <c r="H80" s="41"/>
       <c r="I80" s="42"/>
       <c r="J80" s="24"/>
-      <c r="K80" s="63"/>
+      <c r="K80" s="65"/>
       <c r="L80" s="36">
         <v>27</v>
       </c>
@@ -5613,7 +5613,7 @@
       <c r="H81" s="24"/>
       <c r="I81" s="24"/>
       <c r="J81" s="24"/>
-      <c r="K81" s="64"/>
+      <c r="K81" s="66"/>
       <c r="L81" s="40"/>
       <c r="M81" s="41"/>
       <c r="N81" s="41"/>
@@ -5623,7 +5623,7 @@
       <c r="R81" s="42"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="64" t="s">
         <v>59</v>
       </c>
       <c r="C82" s="32">
@@ -5658,7 +5658,7 @@
       <c r="R82" s="24"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B83" s="63"/>
+      <c r="B83" s="65"/>
       <c r="C83" s="36"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
@@ -5677,7 +5677,7 @@
       <c r="R83" s="24"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B84" s="63"/>
+      <c r="B84" s="65"/>
       <c r="C84" s="36">
         <v>8</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="R84" s="24"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B85" s="63"/>
+      <c r="B85" s="65"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
@@ -5729,7 +5729,7 @@
       <c r="R85" s="24"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B86" s="63"/>
+      <c r="B86" s="65"/>
       <c r="C86" s="36">
         <v>15</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="R86" s="24"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B87" s="63"/>
+      <c r="B87" s="65"/>
       <c r="C87" s="36"/>
       <c r="D87" s="37"/>
       <c r="E87" s="37"/>
@@ -5781,7 +5781,7 @@
       <c r="R87" s="24"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B88" s="63"/>
+      <c r="B88" s="65"/>
       <c r="C88" s="36">
         <v>22</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="R88" s="24"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B89" s="63"/>
+      <c r="B89" s="65"/>
       <c r="C89" s="36"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37"/>
@@ -5833,7 +5833,7 @@
       <c r="R89" s="24"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B90" s="63"/>
+      <c r="B90" s="65"/>
       <c r="C90" s="36">
         <v>29</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="R90" s="24"/>
     </row>
     <row r="91" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="64"/>
+      <c r="B91" s="66"/>
       <c r="C91" s="40"/>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
@@ -5959,6 +5959,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100BD8B8FE1FFC305498D88EED55364E63E" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="e4f5451c1374b39408dcaff8ef87b588">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58fb1aa5-b10b-40f5-8f1f-0f4532569b2e" xmlns:ns3="0ed09013-c87c-44eb-b259-423284067a0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d636d7a5ef168417de08697201314d39" ns2:_="" ns3:_="">
     <xsd:import namespace="58fb1aa5-b10b-40f5-8f1f-0f4532569b2e"/>
@@ -6153,15 +6162,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E803E5B-FF7E-4823-A18C-A103CB55F230}">
   <ds:schemaRefs>
@@ -6174,6 +6174,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63BDE1E8-FC38-420E-92C4-622AC297B625}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05625BC3-D605-47A7-888D-B6336B1C6854}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6190,12 +6198,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63BDE1E8-FC38-420E-92C4-622AC297B625}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>